--- a/MATLAB_code/TRIANGLE_ICOSAHEDRON.xlsx
+++ b/MATLAB_code/TRIANGLE_ICOSAHEDRON.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Prestress_finding\MATLAB_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DDE3A3-0624-4A1B-96BF-E015CF0ACDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D1A0043-414E-4B4B-99FD-6F67FF0F5027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="967" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="967" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CONEXIONES CON" sheetId="1" r:id="rId1"/>
-    <sheet name="COORDENADAS COOR" sheetId="2" r:id="rId2"/>
-    <sheet name="NODOS LIBRES NL" sheetId="3" r:id="rId3"/>
+    <sheet name="CONNECTIVITY" sheetId="1" r:id="rId1"/>
+    <sheet name="COORDINATES" sheetId="2" r:id="rId2"/>
+    <sheet name="FREE NODES" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'NODOS LIBRES NL'!$A$1:$A$64</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'FREE NODES'!$A$1:$A$64</definedName>
     <definedName name="Summary">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -385,7 +385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -920,8 +920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1111,73 +1111,73 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1">
-        <f>+'COORDENADAS COOR'!A1</f>
+        <f>+COORDINATES!A1</f>
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>+'COORDENADAS COOR'!A2</f>
+        <f>+COORDINATES!A2</f>
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>+'COORDENADAS COOR'!A3</f>
+        <f>+COORDINATES!A3</f>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f>+'COORDENADAS COOR'!A4</f>
+        <f>+COORDINATES!A4</f>
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f>+'COORDENADAS COOR'!A5</f>
+        <f>+COORDINATES!A5</f>
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>+'COORDENADAS COOR'!A6</f>
+        <f>+COORDINATES!A6</f>
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>+'COORDENADAS COOR'!A7</f>
+        <f>+COORDINATES!A7</f>
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>+'COORDENADAS COOR'!A8</f>
+        <f>+COORDINATES!A8</f>
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>+'COORDENADAS COOR'!A9</f>
+        <f>+COORDINATES!A9</f>
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>+'COORDENADAS COOR'!A10</f>
+        <f>+COORDINATES!A10</f>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>+'COORDENADAS COOR'!A11</f>
+        <f>+COORDINATES!A11</f>
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>+'COORDENADAS COOR'!A12</f>
+        <f>+COORDINATES!A12</f>
         <v>12</v>
       </c>
     </row>
